--- a/Pricing Logic/modules/uploads/module_4_1126.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,37 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فجيتار كنور عادى - 35 جم</t>
-  </si>
-  <si>
-    <t>كنور فيجيتار حار - 35 جم</t>
-  </si>
-  <si>
-    <t>حلو الشام بسبوسة جوز الهند- 380 جم</t>
-  </si>
-  <si>
-    <t>حلو الشام كريم شانتيه - 45 جم</t>
-  </si>
-  <si>
-    <t>لبان تشكلتس فراولة - 0.5 جنية</t>
-  </si>
-  <si>
-    <t>ستينج فراولة مينى تربو - 250 مل</t>
-  </si>
-  <si>
-    <t>لبان ترايدنت بطيخ - 1.5 جنية</t>
-  </si>
-  <si>
-    <t>لبان ترايدنت توت و فراولة 65 قطعة- 1.5 جنية</t>
-  </si>
-  <si>
-    <t>حلاوة الرشيدى الميزان - 3.875 كجم</t>
-  </si>
-  <si>
-    <t>حفاضات بى بم ميجا مقاس 5 - 76 حفاضة</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>اوكسى يدوى نسيم الربيع - 250 جم</t>
+  </si>
+  <si>
+    <t>تايد يدوي بلمسة الداوني - 1 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -428,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +432,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>105</v>
+        <v>11771</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -468,299 +441,27 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>736.5</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>105</v>
+        <v>22324</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>122.75</v>
+        <v>327.75</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>114</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>125</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>114</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>750</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>380</v>
-      </c>
-      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>530</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>3028</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>183.5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>3028</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1101</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>5209</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1710</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>5209</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>6158</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>113.5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>8274</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>87</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>8274</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1740</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>8635</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>85.75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>8635</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1715</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>9960</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>424</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>9960</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>848</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>10530</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>80</v>
-      </c>
-      <c r="D18">
-        <v>397.25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>10530</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19">
-        <v>29</v>
-      </c>
-      <c r="D19">
-        <v>794.5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1126.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>اوكسى يدوى نسيم الربيع - 250 جم</t>
-  </si>
-  <si>
-    <t>تايد يدوي بلمسة الداوني - 1 كجم</t>
+    <t>شاى ليبتون اخضر - 25 فتلة</t>
+  </si>
+  <si>
+    <t>المراعي جبنة فيتا -عرض الكل كسبان 250 جم</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +435,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11771</v>
+        <v>9796</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -441,7 +444,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>138</v>
+        <v>1452</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -449,19 +452,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22324</v>
+        <v>9796</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>30.25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>24722</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>327.75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>513.75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1126.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,16 +37,28 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شاى ليبتون اخضر - 25 فتلة</t>
-  </si>
-  <si>
-    <t>المراعي جبنة فيتا -عرض الكل كسبان 250 جم</t>
+    <t>مسحوق غسيل فل ازرق يدوى - 9 كجم</t>
+  </si>
+  <si>
+    <t>بسكويت بيمبو اوريجنال - 5 جنية</t>
+  </si>
+  <si>
+    <t>اوكسى نسيم الربيع - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>بسكويت ﺗﺎﻭﺗﺎﻭ ﻣﺎﺭﺷﻴﻤﺎﻟﻮ جوز هند بالشوكلاتة البيضاء - 5 جنية</t>
+  </si>
+  <si>
+    <t>بسكويت ﺗﺎﻭﺗﺎﻭ ﻣﺎﺭﺷﻴﻤﺎﻟﻮ ﻛﺎﻛﺎﻭ - 5 جنية</t>
+  </si>
+  <si>
+    <t>بقسماط ناعم ريتش بيك - 400 جرام</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -404,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,53 +447,155 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>9796</v>
+        <v>2805</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="D2">
-        <v>1452</v>
+        <v>158.75</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>9796</v>
+        <v>5813</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>30.25</v>
+        <v>579</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24722</v>
+        <v>5813</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>513.75</v>
+        <v>48.25</v>
       </c>
       <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>8355</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>328</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>13033</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>591</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>13033</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>49.25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>13034</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>594</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>13034</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>49.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>21946</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>352</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1126.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,28 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مسحوق غسيل فل ازرق يدوى - 9 كجم</t>
-  </si>
-  <si>
-    <t>بسكويت بيمبو اوريجنال - 5 جنية</t>
-  </si>
-  <si>
-    <t>اوكسى نسيم الربيع - 1.5 كجم</t>
-  </si>
-  <si>
-    <t>بسكويت ﺗﺎﻭﺗﺎﻭ ﻣﺎﺭﺷﻴﻤﺎﻟﻮ جوز هند بالشوكلاتة البيضاء - 5 جنية</t>
-  </si>
-  <si>
-    <t>بسكويت ﺗﺎﻭﺗﺎﻭ ﻣﺎﺭﺷﻴﻤﺎﻟﻮ ﻛﺎﻛﺎﻭ - 5 جنية</t>
-  </si>
-  <si>
-    <t>بقسماط ناعم ريتش بيك - 400 جرام</t>
+    <t>مكرونة بساطة لسان عصفور - 350 جم</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -416,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,155 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2805</v>
+        <v>7706</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>158.75</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>5813</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>579</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>5813</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>48.25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>8355</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>328</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>13033</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>591</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>13033</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>49.25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>13034</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>594</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>13034</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>49.5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>21946</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>352</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1126.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مكرونة بساطة لسان عصفور - 350 جم</t>
+    <t>لبان تشكلتس نعناع - 0.5 جنية</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,18 +429,35 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>7706</v>
+        <v>5208</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>165</v>
+        <v>1552.5</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>5208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>51.75</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Pricing Logic/modules/uploads/module_4_1126.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>لبان تشكلتس نعناع - 0.5 جنية</t>
+    <t>شانة عسل أسود - 450 جم</t>
+  </si>
+  <si>
+    <t>كل يوم عصير تفاح - 200 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +432,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5208</v>
+        <v>5969</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,27 +441,44 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1552.5</v>
+        <v>412.5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>5208</v>
+        <v>5969</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>51.75</v>
+        <v>27.5</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>11837</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>116.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1126.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,16 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شانة عسل أسود - 450 جم</t>
-  </si>
-  <si>
-    <t>كل يوم عصير تفاح - 200 مل</t>
+    <t>حفاضات بى بم بانتس جامبو مقاس 4 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة مرمرية - 350 جم</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 550 مل</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم بانتس مقاس 4 - 76 حفاضة</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,41 +438,41 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5969</v>
+        <v>2419</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>412.5</v>
+        <v>803.25</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>5969</v>
+        <v>2419</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>27.5</v>
+        <v>267.75</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>11837</v>
+        <v>7707</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -475,10 +481,61 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>116.5</v>
+        <v>168.25</v>
       </c>
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>12925</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>460.25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>23992</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>349.25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>23992</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>698.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1126.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,25 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>حفاضات بى بم بانتس جامبو مقاس 4 - 56 حفاضة</t>
-  </si>
-  <si>
-    <t>مكرونة بساطة مرمرية - 350 جم</t>
-  </si>
-  <si>
-    <t>زيت ثمرات خليط - 550 مل</t>
-  </si>
-  <si>
-    <t>حفاضات بى بم بانتس مقاس 4 - 76 حفاضة</t>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
+  </si>
+  <si>
+    <t>مربى الرشيدى الميزان مشمش - 340 جم</t>
+  </si>
+  <si>
+    <t>كاتشب هاينز الكبير - 14 جم</t>
+  </si>
+  <si>
+    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -407,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,104 +444,172 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2419</v>
+        <v>2778</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>803.25</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2419</v>
+        <v>3558</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>267.75</v>
+        <v>28.5</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>7707</v>
+        <v>3558</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>168.25</v>
+        <v>684</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>12925</v>
+        <v>3558</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>460.25</v>
+        <v>342</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>23992</v>
+        <v>3558</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>349.25</v>
+        <v>1368</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>23992</v>
+        <v>6356</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>293.25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>9507</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>698.5</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>960</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>9507</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>160</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>21687</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>21687</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>312</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1126.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,25 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كوكا كولا - 2.45 لتر</t>
-  </si>
-  <si>
-    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
-  </si>
-  <si>
-    <t>مربى الرشيدى الميزان مشمش - 340 جم</t>
-  </si>
-  <si>
-    <t>كاتشب هاينز الكبير - 14 جم</t>
-  </si>
-  <si>
-    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
+    <t>مكرونة بساطة هلالية - 350 جم</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -413,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2778</v>
+        <v>7708</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -453,163 +438,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>205</v>
+        <v>165.25</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>3558</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>28.5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3558</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>684</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>3558</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>342</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>3558</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1368</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>6356</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>293.25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>9507</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>960</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>9507</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>160</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>21687</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>21687</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>312</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1126.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1126.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مكرونة بساطة هلالية - 350 جم</t>
+    <t>ماكسى ليمون نعناع - 1 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>7708</v>
+        <v>25278</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>165.25</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Pricing Logic/modules/uploads/module_4_1126.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,16 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ماكسى ليمون نعناع - 1 لتر</t>
+    <t>شويبس جولد اناناس - 1.75 لتر</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 3 - 40 حفاضة</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل ازرق يدوى - 2.5 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة فرن - 350 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +438,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>25278</v>
+        <v>2327</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,10 +447,78 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2422</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>153.75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2422</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>768.75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3934</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>51.75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>7705</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>163</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1126.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,16 +37,31 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شويبس جولد اناناس - 1.75 لتر</t>
-  </si>
-  <si>
-    <t>حفاضات جود كير مقاس 3 - 40 حفاضة</t>
-  </si>
-  <si>
-    <t>مسحوق غسيل فل ازرق يدوى - 2.5 كجم</t>
-  </si>
-  <si>
-    <t>مكرونة بساطة فرن - 350 جم</t>
+    <t>كلوركس 5*1 لافندر - 3 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر - 3 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 ليمون - 700 مل</t>
+  </si>
+  <si>
+    <t>كلوركس الوان برائحة الزهور - 475 مل</t>
+  </si>
+  <si>
+    <t>كلوركس كلور الوان برائحة الزهور - 2 لتر</t>
+  </si>
+  <si>
+    <t>رويال أعشاب ينسون - 50 فتلة</t>
+  </si>
+  <si>
+    <t>كلوركس جل زهور - 750 مل</t>
+  </si>
+  <si>
+    <t>بسكويت تاو تاو فانتوم فراولة - 6 قطعه</t>
+  </si>
+  <si>
+    <t>بسكويت تاو تاو فانتوم جوز الهند - 6 قطعه</t>
   </si>
   <si>
     <t>YES</t>
@@ -407,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,87 +453,206 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2327</v>
+        <v>2663</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>215</v>
+        <v>508</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2422</v>
+        <v>2664</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>153.75</v>
+        <v>508</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2422</v>
+        <v>2673</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>768.75</v>
+        <v>507</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3934</v>
+        <v>3390</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>51.75</v>
+        <v>267</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>7705</v>
+        <v>3392</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>163</v>
+        <v>618</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3982</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1314</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>3982</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>36.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>6946</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>509</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>13024</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>300</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>13024</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>13025</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>25.25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>13025</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>303</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1126.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,31 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كلوركس 5*1 لافندر - 3 لتر</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نسيم البحر - 3 لتر</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 ليمون - 700 مل</t>
-  </si>
-  <si>
-    <t>كلوركس الوان برائحة الزهور - 475 مل</t>
-  </si>
-  <si>
-    <t>كلوركس كلور الوان برائحة الزهور - 2 لتر</t>
-  </si>
-  <si>
-    <t>رويال أعشاب ينسون - 50 فتلة</t>
-  </si>
-  <si>
-    <t>كلوركس جل زهور - 750 مل</t>
-  </si>
-  <si>
-    <t>بسكويت تاو تاو فانتوم فراولة - 6 قطعه</t>
-  </si>
-  <si>
-    <t>بسكويت تاو تاو فانتوم جوز الهند - 6 قطعه</t>
+    <t>زيووو اراميش بافس فلفل حلو - 5 جنية</t>
+  </si>
+  <si>
+    <t>ماندولين ويفر كريمة الكاكاو ب 5ج - 16 جم</t>
+  </si>
+  <si>
+    <t>بسكويت ويفر محشو بكريمة البندق HD الشمعدان - 6 قطعه</t>
   </si>
   <si>
     <t>YES</t>
@@ -422,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +435,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2663</v>
+        <v>12352</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -462,15 +444,15 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>508</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2664</v>
+        <v>22316</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -479,180 +461,61 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>508</v>
+        <v>1149</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2673</v>
+        <v>22316</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>507</v>
+        <v>95.75</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3390</v>
+        <v>23546</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>267</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>3392</v>
+        <v>23546</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>618</v>
+        <v>576</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>3982</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1314</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>3982</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>36.5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>6946</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>509</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>13024</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>300</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>13024</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>13025</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>25.25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>13025</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>303</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1126.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>زيووو اراميش بافس فلفل حلو - 5 جنية</t>
-  </si>
-  <si>
-    <t>ماندولين ويفر كريمة الكاكاو ب 5ج - 16 جم</t>
-  </si>
-  <si>
-    <t>بسكويت ويفر محشو بكريمة البندق HD الشمعدان - 6 قطعه</t>
+    <t>هارفست صلصة شرينك ٢ برطمان خصم   15 % --- 320 جم</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر 6 عبوة - 700 جم</t>
+  </si>
+  <si>
+    <t>أجين عصير اناناس محلى ظرف- 19 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,16 +435,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>12352</v>
+        <v>5080</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>249.25</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22316</v>
+        <v>9613</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1149</v>
+        <v>460</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -469,16 +469,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>22316</v>
+        <v>13323</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>95.75</v>
+        <v>510</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>23546</v>
+        <v>13323</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -495,26 +495,9 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>23546</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>576</v>
-      </c>
-      <c r="E6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Pricing Logic/modules/uploads/module_4_1126.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>هارفست صلصة شرينك ٢ برطمان خصم   15 % --- 320 جم</t>
-  </si>
-  <si>
-    <t>سمن كريستال اصفر 6 عبوة - 700 جم</t>
-  </si>
-  <si>
-    <t>أجين عصير اناناس محلى ظرف- 19 جم</t>
+    <t>بيبسى كانز جيب - 240 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5080</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -444,61 +438,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>249.25</v>
+        <v>301.75</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>9613</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>460</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>13323</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>510</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>13323</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
